--- a/data/trans_orig/CONS_PSI-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSI-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos en País Vasco</t>
+          <t>Consumo de medicamentos psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos en Andalucia</t>
+          <t>Consumo de medicamentos psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos en C.Valenciana</t>
+          <t>Consumo de medicamentos psicofármacos en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos en Barcelona</t>
+          <t>Consumo de medicamentos psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_PSI-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSI-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>786</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>845</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61503</t>
+          <t>74967</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60036</t>
+          <t>73049</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62279</t>
+          <t>76095</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60756</t>
+          <t>64565</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58994</t>
+          <t>63121</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61688</t>
+          <t>65397</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>122260</t>
+          <t>139531</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>120483</t>
+          <t>137220</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123586</t>
+          <t>141009</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,52%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3643</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2522</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5745</t>
+          <t>5902</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67453</t>
+          <t>73139</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65963</t>
+          <t>71679</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68298</t>
+          <t>73980</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60353</t>
+          <t>66000</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58840</t>
+          <t>64521</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>61328</t>
+          <t>66872</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>127805</t>
+          <t>139139</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>125902</t>
+          <t>137129</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>129091</t>
+          <t>140509</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>98,24%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>5564</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6091</t>
+          <t>6575</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4256</t>
+          <t>4518</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8383</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8375</t>
+          <t>10015</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6319</t>
+          <t>7552</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11418</t>
+          <t>13158</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92411</t>
+          <t>100521</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91025</t>
+          <t>98396</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93475</t>
+          <t>102047</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91414</t>
+          <t>104140</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89122</t>
+          <t>101571</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93249</t>
+          <t>106197</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>183825</t>
+          <t>204660</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>180782</t>
+          <t>201517</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>185881</t>
+          <t>207123</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>11269</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9012</t>
+          <t>8587</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14590</t>
+          <t>14429</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14318</t>
+          <t>13922</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11407</t>
+          <t>11334</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17786</t>
+          <t>17530</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25720</t>
+          <t>25191</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21523</t>
+          <t>21375</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>30011</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>128012</t>
+          <t>133509</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>124824</t>
+          <t>130349</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>130402</t>
+          <t>136191</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,53%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>123657</t>
+          <t>138622</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>120189</t>
+          <t>135014</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>126568</t>
+          <t>141210</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>88,51%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>251670</t>
+          <t>272130</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>247379</t>
+          <t>267546</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>255867</t>
+          <t>275946</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,18%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,81%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14055</t>
+          <t>13322</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>10282</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17081</t>
+          <t>16528</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20824</t>
+          <t>21816</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17604</t>
+          <t>18261</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>24803</t>
+          <t>25603</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>34878</t>
+          <t>35138</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>30303</t>
+          <t>30039</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>40358</t>
+          <t>40191</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,28%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>112799</t>
+          <t>116260</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>109773</t>
+          <t>113054</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>116151</t>
+          <t>119300</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>126517</t>
+          <t>130099</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>126312</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>129737</t>
+          <t>133654</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>239316</t>
+          <t>246360</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>233836</t>
+          <t>241307</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>243891</t>
+          <t>251459</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>89,33%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11100</t>
+          <t>12026</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8920</t>
+          <t>9578</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14392</t>
+          <t>14748</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23685</t>
+          <t>25749</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20378</t>
+          <t>21769</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27678</t>
+          <t>29865</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>34785</t>
+          <t>37775</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30518</t>
+          <t>33435</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>39738</t>
+          <t>43088</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>19,56%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>96504</t>
+          <t>92440</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>93212</t>
+          <t>89718</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>98684</t>
+          <t>94888</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>91223</t>
+          <t>90031</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>87230</t>
+          <t>85915</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>94530</t>
+          <t>94011</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>74,21%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>187727</t>
+          <t>182471</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>182774</t>
+          <t>177158</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>191994</t>
+          <t>186811</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>82,85%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>80,44%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,28%</t>
+          <t>84,82%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22368</t>
+          <t>19924</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19127</t>
+          <t>16637</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26568</t>
+          <t>23046</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>51905</t>
+          <t>49909</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>46942</t>
+          <t>44998</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>56971</t>
+          <t>54434</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>74273</t>
+          <t>69833</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>67445</t>
+          <t>64084</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>80034</t>
+          <t>75542</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>34,1%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>73987</t>
+          <t>69299</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>69787</t>
+          <t>66177</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77228</t>
+          <t>72586</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>80,15%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>82026</t>
+          <t>82403</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>76960</t>
+          <t>77878</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>86989</t>
+          <t>87314</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>62,28%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>156013</t>
+          <t>151702</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>150252</t>
+          <t>145993</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>162841</t>
+          <t>157451</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>68,48%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>71,07%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,32 +3137,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64234</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>57883</t>
+          <t>58168</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>71270</t>
+          <t>70323</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>120689</t>
+          <t>121697</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>111301</t>
+          <t>113491</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>129929</t>
+          <t>130401</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>184923</t>
+          <t>185434</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>173283</t>
+          <t>173995</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>195854</t>
+          <t>196880</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>12,94%</t>
         </is>
       </c>
     </row>
@@ -3250,32 +3250,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>632669</t>
+          <t>660134</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>625633</t>
+          <t>653549</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>639020</t>
+          <t>665704</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>635946</t>
+          <t>675859</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>626706</t>
+          <t>667155</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>645334</t>
+          <t>684065</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>82,83%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1268615</t>
+          <t>1335995</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1257684</t>
+          <t>1324549</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1280255</t>
+          <t>1347434</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>88,56%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19607</t>
+          <t>18555</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27625</t>
+          <t>25715</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>6958</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>33489</t>
+          <t>33495</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>216629</t>
+          <t>217681</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>156728</t>
+          <t>158638</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>179558</t>
+          <t>179153</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>387100</t>
+          <t>387094</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>413589</t>
+          <t>413631</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>98,35%</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>333</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11362</t>
+          <t>9143</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6346</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25193</t>
+          <t>25005</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7845</t>
+          <t>8909</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>27600</t>
+          <t>28141</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -4184,12 +4184,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>218006</t>
+          <t>220225</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228950</t>
+          <t>229035</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>289235</t>
+          <t>289423</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>308082</t>
+          <t>308358</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>516196</t>
+          <t>515655</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>535951</t>
+          <t>534887</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>98,36%</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9955</t>
+          <t>10351</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27208</t>
+          <t>28355</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24045</t>
+          <t>23345</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>40843</t>
+          <t>41488</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>37941</t>
+          <t>38901</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>62314</t>
+          <t>62984</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,94%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>283561</t>
+          <t>282414</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>300814</t>
+          <t>300418</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>281770</t>
+          <t>281125</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>298568</t>
+          <t>299268</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>87,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>571067</t>
+          <t>570397</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>595440</t>
+          <t>594480</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>93,86%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14727</t>
+          <t>16278</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78458</t>
+          <t>78659</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49732</t>
+          <t>49149</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78576</t>
+          <t>79650</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>53897</t>
+          <t>51214</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>144699</t>
+          <t>145294</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>548706</t>
+          <t>548505</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>612437</t>
+          <t>610886</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>326226</t>
+          <t>325152</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>355070</t>
+          <t>355653</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>80,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>87,86%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>887267</t>
+          <t>886672</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>978069</t>
+          <t>980752</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>95,04%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32278</t>
+          <t>32482</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54499</t>
+          <t>54517</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>69824</t>
+          <t>68364</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>92142</t>
+          <t>92530</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>106992</t>
+          <t>105469</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>140165</t>
+          <t>140065</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,29%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>284630</t>
+          <t>284612</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>306851</t>
+          <t>306647</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,93%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>226752</t>
+          <t>226364</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>249070</t>
+          <t>250530</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>71,11%</t>
+          <t>70,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>517859</t>
+          <t>517959</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>551032</t>
+          <t>552555</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>78,71%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>83,97%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17856</t>
+          <t>17370</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32964</t>
+          <t>31850</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23750</t>
+          <t>18981</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>131493</t>
+          <t>133902</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>42039</t>
+          <t>35992</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>141056</t>
+          <t>143797</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,76%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>175120</t>
+          <t>176234</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>190228</t>
+          <t>190714</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>84,16%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>321149</t>
+          <t>318740</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>428892</t>
+          <t>433661</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>519671</t>
+          <t>516930</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>618688</t>
+          <t>624735</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>78,65%</t>
+          <t>78,24%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>94,55%</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26759</t>
+          <t>26064</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>42792</t>
+          <t>42431</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>75075</t>
+          <t>75222</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>96572</t>
+          <t>95801</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>104320</t>
+          <t>105294</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>133062</t>
+          <t>132712</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>34,51%</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>108493</t>
+          <t>108854</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>124526</t>
+          <t>125221</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>71,71%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>136701</t>
+          <t>137472</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>158198</t>
+          <t>158051</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>251496</t>
+          <t>251846</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>280238</t>
+          <t>279264</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>72,87%</t>
+          <t>72,62%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>107847</t>
+          <t>111407</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>202181</t>
+          <t>201561</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>260876</t>
+          <t>240009</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>410592</t>
+          <t>404034</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>414595</t>
+          <t>400243</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>591128</t>
+          <t>589919</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1899854</t>
+          <t>1900474</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1994188</t>
+          <t>1990628</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1820414</t>
+          <t>1826972</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1970130</t>
+          <t>1990997</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>81,6%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3741913</t>
+          <t>3743122</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3918446</t>
+          <t>3932798</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>90,76%</t>
         </is>
       </c>
     </row>
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9714</t>
+          <t>10511</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9145</t>
+          <t>9350</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>7505</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16695</t>
+          <t>16673</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54959</t>
+          <t>54162</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61340</t>
+          <t>61098</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,98%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52395</t>
+          <t>52190</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59179</t>
+          <t>59158</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>84,81%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>109519</t>
+          <t>109541</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>118747</t>
+          <t>118709</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>94,05%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6250</t>
+          <t>6111</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14654</t>
+          <t>14947</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9229</t>
+          <t>9384</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19566</t>
+          <t>19756</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>17117</t>
+          <t>17040</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>31054</t>
+          <t>30717</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,22%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>108643</t>
+          <t>108350</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>117047</t>
+          <t>117186</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>108465</t>
+          <t>108275</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118802</t>
+          <t>118647</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>220273</t>
+          <t>220610</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>234210</t>
+          <t>234287</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,22%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9312</t>
+          <t>9384</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20164</t>
+          <t>20885</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9820</t>
+          <t>10017</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20578</t>
+          <t>20192</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>21649</t>
+          <t>20795</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>36052</t>
+          <t>36209</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,39%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>119203</t>
+          <t>118482</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>130055</t>
+          <t>129983</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110404</t>
+          <t>110790</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>121162</t>
+          <t>120965</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>234296</t>
+          <t>234139</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>248699</t>
+          <t>249553</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>92,31%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10087</t>
+          <t>9996</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20819</t>
+          <t>20268</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22923</t>
+          <t>22238</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37218</t>
+          <t>37699</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>34286</t>
+          <t>34684</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>53728</t>
+          <t>53221</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>22,44%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96832</t>
+          <t>97383</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>107564</t>
+          <t>107655</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>82314</t>
+          <t>81833</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>96609</t>
+          <t>97294</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>68,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>81,4%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>183455</t>
+          <t>183962</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>202897</t>
+          <t>202499</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>85,38%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10554</t>
+          <t>10486</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22238</t>
+          <t>22658</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29387</t>
+          <t>29770</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45022</t>
+          <t>45552</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>43364</t>
+          <t>42808</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>63314</t>
+          <t>63496</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>29,69%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75775</t>
+          <t>75355</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>87459</t>
+          <t>87527</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,31%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,23%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70838</t>
+          <t>70308</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>86473</t>
+          <t>86090</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>60,68%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>150560</t>
+          <t>150378</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>170510</t>
+          <t>171066</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>70,31%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>79,72%</t>
+          <t>79,98%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7077</t>
+          <t>7326</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18306</t>
+          <t>17753</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20904</t>
+          <t>21630</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>34342</t>
+          <t>34568</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30932</t>
+          <t>30762</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>48654</t>
+          <t>48121</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>30,56%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>50796</t>
+          <t>51349</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>62025</t>
+          <t>61776</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>73,51%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>54018</t>
+          <t>53792</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>67456</t>
+          <t>66730</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>108808</t>
+          <t>109341</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>126530</t>
+          <t>126700</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>80,46%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13629</t>
+          <t>13290</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24194</t>
+          <t>23813</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47200</t>
+          <t>46354</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>63666</t>
+          <t>63151</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>56,33%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>63698</t>
+          <t>63084</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>83559</t>
+          <t>83078</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>45,64%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44812</t>
+          <t>45193</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>55377</t>
+          <t>55716</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>49348</t>
+          <t>49863</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>65814</t>
+          <t>66660</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>98461</t>
+          <t>98942</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>118322</t>
+          <t>118936</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>65,34%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>76382</t>
+          <t>76884</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>103270</t>
+          <t>103533</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>161366</t>
+          <t>163597</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>200943</t>
+          <t>198477</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>248343</t>
+          <t>246871</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>294157</t>
+          <t>292076</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,31%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>577839</t>
+          <t>577576</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>604727</t>
+          <t>604225</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>556376</t>
+          <t>558842</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>595953</t>
+          <t>593722</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>73,47%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>78,69%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1144271</t>
+          <t>1146352</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1190085</t>
+          <t>1191557</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>79,69%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>82,84%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_PSI-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSI-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3832</t>
+          <t>16878</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>13864</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>5740</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>27113</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>17254</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>7601</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>5903</t>
+          <t>34359</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74967</t>
+          <t>237875</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73049</t>
+          <t>224387</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76095</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64565</t>
+          <t>205791</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63121</t>
+          <t>192542</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65397</t>
+          <t>213915</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>139531</t>
+          <t>443666</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>137220</t>
+          <t>426561</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>141009</t>
+          <t>453319</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,35%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13183</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1844</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3304</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2048</t>
+          <t>14290</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>7629</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>23634</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>19555</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>11723</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5902</t>
+          <t>31509</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73139</t>
+          <t>256710</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71679</t>
+          <t>248791</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73980</t>
+          <t>260709</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>237</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66000</t>
+          <t>269163</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64521</t>
+          <t>259819</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>66872</t>
+          <t>275824</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>386</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>139139</t>
+          <t>525871</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>137129</t>
+          <t>513917</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>140509</t>
+          <t>533703</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,85%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>17692</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>10595</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5564</t>
+          <t>29190</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6575</t>
+          <t>34229</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>25391</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9144</t>
+          <t>44570</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>10015</t>
+          <t>51921</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7552</t>
+          <t>40627</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>13158</t>
+          <t>66803</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>100521</t>
+          <t>350626</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98396</t>
+          <t>339128</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>102047</t>
+          <t>357723</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>447</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>104140</t>
+          <t>339156</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>101571</t>
+          <t>328815</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>106197</t>
+          <t>347994</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>745</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>204660</t>
+          <t>689782</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>201517</t>
+          <t>674900</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>207123</t>
+          <t>701076</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>94,52%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11269</t>
+          <t>48233</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8587</t>
+          <t>35744</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14429</t>
+          <t>64828</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13922</t>
+          <t>60764</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11334</t>
+          <t>49859</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17530</t>
+          <t>72739</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>133</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25191</t>
+          <t>108997</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21375</t>
+          <t>92187</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>29775</t>
+          <t>127978</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>14,79%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133509</t>
+          <t>375708</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>130349</t>
+          <t>359113</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>136191</t>
+          <t>388197</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>138622</t>
+          <t>380528</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>135014</t>
+          <t>368553</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>141210</t>
+          <t>391433</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>88,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>917</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>272130</t>
+          <t>756237</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>267546</t>
+          <t>737256</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>275946</t>
+          <t>773047</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>89,35%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13322</t>
+          <t>44686</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10282</t>
+          <t>33985</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16528</t>
+          <t>57565</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21816</t>
+          <t>91104</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18261</t>
+          <t>78254</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25603</t>
+          <t>104819</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>35138</t>
+          <t>135790</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>30039</t>
+          <t>117382</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>40191</t>
+          <t>153848</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>21,12%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>116260</t>
+          <t>323357</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>113054</t>
+          <t>310478</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>119300</t>
+          <t>334058</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>87,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>424</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>130099</t>
+          <t>269262</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>126312</t>
+          <t>255547</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>133654</t>
+          <t>282112</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,15%</t>
+          <t>70,91%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>773</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>246360</t>
+          <t>592618</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>241307</t>
+          <t>574560</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>251459</t>
+          <t>611026</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>78,88%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>83,89%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12026</t>
+          <t>26004</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9578</t>
+          <t>18376</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14748</t>
+          <t>33925</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25749</t>
+          <t>77297</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21769</t>
+          <t>66974</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>29865</t>
+          <t>89096</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>175</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>37775</t>
+          <t>103300</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>33435</t>
+          <t>88968</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>43088</t>
+          <t>118567</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>23,65%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>92440</t>
+          <t>205269</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>89718</t>
+          <t>197348</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>94888</t>
+          <t>212897</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>345</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>90031</t>
+          <t>192735</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>85915</t>
+          <t>180936</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>94011</t>
+          <t>203058</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>81,2%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>624</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>182471</t>
+          <t>398004</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>177158</t>
+          <t>382737</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>186811</t>
+          <t>412336</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>82,25%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19924</t>
+          <t>37063</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16637</t>
+          <t>28526</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23046</t>
+          <t>46180</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>158</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>49909</t>
+          <t>95081</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44998</t>
+          <t>83762</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>54434</t>
+          <t>107102</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>37,1%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>213</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>69833</t>
+          <t>132145</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>64084</t>
+          <t>117548</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>75542</t>
+          <t>148187</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>35,17%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>69299</t>
+          <t>128023</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>66177</t>
+          <t>118906</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72586</t>
+          <t>136560</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,67%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>82,72%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>282</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>82403</t>
+          <t>161195</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>77878</t>
+          <t>149174</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>87314</t>
+          <t>172514</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>62,28%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>65,99%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>457</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>151702</t>
+          <t>289217</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>145993</t>
+          <t>273175</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>157451</t>
+          <t>303814</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,9%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>63738</t>
+          <t>182333</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>58168</t>
+          <t>158770</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>70323</t>
+          <t>210099</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>593</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>121697</t>
+          <t>386630</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>113491</t>
+          <t>357739</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>130401</t>
+          <t>419382</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>796</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>185434</t>
+          <t>568962</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>173995</t>
+          <t>528133</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>196880</t>
+          <t>605906</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>14,21%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>660134</t>
+          <t>1877567</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>653549</t>
+          <t>1849801</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>665704</t>
+          <t>1901130</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3740</t>
+          <t>2415</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>675859</t>
+          <t>1817829</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>667155</t>
+          <t>1785077</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>684065</t>
+          <t>1846720</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>82,46%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7440</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1335995</t>
+          <t>3695396</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1324549</t>
+          <t>3658452</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1347434</t>
+          <t>3736225</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>86,66%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>87,62%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4903</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>6147</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18555</t>
+          <t>10511</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12984</t>
+          <t>5272</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25715</t>
+          <t>9350</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>16807</t>
+          <t>11419</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6958</t>
+          <t>7505</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>33495</t>
+          <t>16673</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>232413</t>
+          <t>58526</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>217681</t>
+          <t>54162</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>61098</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>171369</t>
+          <t>56268</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>158638</t>
+          <t>52190</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>179153</t>
+          <t>59158</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>84,81%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>295</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>403782</t>
+          <t>114795</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>387094</t>
+          <t>109541</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>413631</t>
+          <t>118709</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>94,05%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>6111</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9143</t>
+          <t>14947</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13810</t>
+          <t>13464</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t>9384</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25005</t>
+          <t>19756</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>16651</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8909</t>
+          <t>17040</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28141</t>
+          <t>30717</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>12,22%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>226527</t>
+          <t>113310</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>220225</t>
+          <t>108350</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229035</t>
+          <t>117186</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>255</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>300618</t>
+          <t>114567</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>289423</t>
+          <t>108275</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>308358</t>
+          <t>118647</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>504</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>527145</t>
+          <t>227877</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>515655</t>
+          <t>220610</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>534887</t>
+          <t>234287</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>93,22%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>557</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,107 +4404,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17261</t>
+          <t>13618</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10351</t>
+          <t>9384</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28355</t>
+          <t>20885</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31661</t>
+          <t>14282</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23345</t>
+          <t>10017</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41488</t>
+          <t>20192</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>48922</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>38901</t>
+          <t>20795</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>62984</t>
+          <t>36209</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>13,39%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>293508</t>
+          <t>125749</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>282414</t>
+          <t>118482</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>300418</t>
+          <t>129983</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>277</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>290952</t>
+          <t>116700</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>281125</t>
+          <t>110790</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>299268</t>
+          <t>120965</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,14%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>562</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>584459</t>
+          <t>242448</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>570397</t>
+          <t>234139</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>594480</t>
+          <t>249553</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>92,31%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>632</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270348</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270348</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270348</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43644</t>
+          <t>14394</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16278</t>
+          <t>9996</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78659</t>
+          <t>20268</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60915</t>
+          <t>28847</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49149</t>
+          <t>22238</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>79650</t>
+          <t>37699</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>104559</t>
+          <t>43241</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51214</t>
+          <t>34684</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>145294</t>
+          <t>53221</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>22,44%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>583520</t>
+          <t>103257</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>548505</t>
+          <t>97383</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>610886</t>
+          <t>107655</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>232</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>343887</t>
+          <t>90685</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>325152</t>
+          <t>81833</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>355653</t>
+          <t>97294</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,32%</t>
+          <t>68,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>81,4%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>483</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>927407</t>
+          <t>193942</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>886672</t>
+          <t>183962</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>980752</t>
+          <t>202499</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>85,38%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42257</t>
+          <t>15539</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32482</t>
+          <t>10486</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54517</t>
+          <t>22658</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>80555</t>
+          <t>36644</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>68364</t>
+          <t>29770</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>92530</t>
+          <t>45552</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>122812</t>
+          <t>52183</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>105469</t>
+          <t>42808</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>140065</t>
+          <t>63496</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>29,69%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>296872</t>
+          <t>82474</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>284612</t>
+          <t>75355</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>306647</t>
+          <t>87527</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>238339</t>
+          <t>79216</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>226364</t>
+          <t>70308</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>250530</t>
+          <t>86090</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>68,37%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>60,68%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>388</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>535212</t>
+          <t>161691</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>517959</t>
+          <t>150378</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>552555</t>
+          <t>171066</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>75,6%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>70,31%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>79,98%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24399</t>
+          <t>11077</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17370</t>
+          <t>7326</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31850</t>
+          <t>17753</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69722</t>
+          <t>27215</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18981</t>
+          <t>21630</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>133902</t>
+          <t>34568</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>94121</t>
+          <t>38292</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>35992</t>
+          <t>30762</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>143797</t>
+          <t>48121</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>30,56%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>183685</t>
+          <t>58025</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>176234</t>
+          <t>51349</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>190714</t>
+          <t>61776</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>158</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>382920</t>
+          <t>61145</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>318740</t>
+          <t>53792</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>433661</t>
+          <t>66730</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>307</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>566606</t>
+          <t>119170</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>516930</t>
+          <t>109341</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>624735</t>
+          <t>126700</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>80,46%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>33826</t>
+          <t>18273</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26064</t>
+          <t>13290</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>42431</t>
+          <t>23813</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>139</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>85235</t>
+          <t>54841</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>75222</t>
+          <t>46354</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>95801</t>
+          <t>63151</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>187</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>119061</t>
+          <t>73113</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>105294</t>
+          <t>63084</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>132712</t>
+          <t>83078</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>45,64%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>117459</t>
+          <t>50733</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>108854</t>
+          <t>45193</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>125221</t>
+          <t>55716</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,64%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>168</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>148038</t>
+          <t>58173</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>137472</t>
+          <t>49863</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>158051</t>
+          <t>66660</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>313</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>265497</t>
+          <t>108907</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>251846</t>
+          <t>98942</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>279264</t>
+          <t>118936</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>69,04%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>72,62%</t>
+          <t>65,34%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>307</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>113014</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>113014</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>113014</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>182020</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>182020</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>182020</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>168050</t>
+          <t>89035</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>111407</t>
+          <t>76884</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>201561</t>
+          <t>103533</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>437</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>354882</t>
+          <t>180565</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>240009</t>
+          <t>163597</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>404034</t>
+          <t>198477</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>655</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>522933</t>
+          <t>269599</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>400243</t>
+          <t>246871</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>589919</t>
+          <t>292076</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>20,31%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1933985</t>
+          <t>592074</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1900474</t>
+          <t>577576</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1990628</t>
+          <t>604225</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2415</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1876124</t>
+          <t>576754</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1826972</t>
+          <t>558842</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1990997</t>
+          <t>593722</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4107</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3810108</t>
+          <t>1168829</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3743122</t>
+          <t>1146352</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3932798</t>
+          <t>1191557</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>81,26%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>79,69%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>82,84%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>681109</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>681109</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>681109</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>757319</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>757319</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>757319</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>1438428</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>1438428</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>1438428</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6147</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3575</t>
+          <t>786</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10511</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5272</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>845</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9350</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>11419</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7505</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16673</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58526</t>
+          <t>74967</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54162</t>
+          <t>73049</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61098</t>
+          <t>76095</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>338</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56268</t>
+          <t>64565</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52190</t>
+          <t>63121</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59158</t>
+          <t>65397</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>706</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>114795</t>
+          <t>139531</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>109541</t>
+          <t>137220</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>118709</t>
+          <t>141009</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>98,52%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6111</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14947</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13464</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9384</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19756</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>23450</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>17040</t>
+          <t>2522</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30717</t>
+          <t>5902</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>113310</t>
+          <t>73139</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>108350</t>
+          <t>71679</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>117186</t>
+          <t>73980</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>354</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>114567</t>
+          <t>66000</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>108275</t>
+          <t>64521</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118647</t>
+          <t>66872</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>739</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>227877</t>
+          <t>139139</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>220610</t>
+          <t>137129</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>234287</t>
+          <t>140509</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>98,24%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13618</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9384</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20885</t>
+          <t>5564</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14282</t>
+          <t>6575</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10017</t>
+          <t>4518</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20192</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>10015</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20795</t>
+          <t>7552</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>36209</t>
+          <t>13158</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>125749</t>
+          <t>100521</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>118482</t>
+          <t>98396</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>129983</t>
+          <t>102047</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>544</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>116700</t>
+          <t>104140</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110790</t>
+          <t>101571</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>120965</t>
+          <t>106197</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,58%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>242448</t>
+          <t>204660</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>234139</t>
+          <t>201517</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>249553</t>
+          <t>207123</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>270348</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>270348</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>270348</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14394</t>
+          <t>11269</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9996</t>
+          <t>8587</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20268</t>
+          <t>14429</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28847</t>
+          <t>13922</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22238</t>
+          <t>11334</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37699</t>
+          <t>17530</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>147</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>43241</t>
+          <t>25191</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>34684</t>
+          <t>21375</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>53221</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>738</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>103257</t>
+          <t>133509</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97383</t>
+          <t>130349</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>107655</t>
+          <t>136191</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>730</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>90685</t>
+          <t>138622</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>81833</t>
+          <t>135014</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>97294</t>
+          <t>141210</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>68,46%</t>
+          <t>88,51%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1468</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>193942</t>
+          <t>272130</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>183962</t>
+          <t>267546</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>202499</t>
+          <t>275946</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>92,81%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15539</t>
+          <t>13322</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10486</t>
+          <t>10282</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22658</t>
+          <t>16528</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36644</t>
+          <t>21816</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29770</t>
+          <t>18261</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45552</t>
+          <t>25603</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>52183</t>
+          <t>35138</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>42808</t>
+          <t>30039</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>63496</t>
+          <t>40191</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>14,28%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>116260</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75355</t>
+          <t>113054</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>87527</t>
+          <t>119300</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,88%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>736</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>79216</t>
+          <t>130099</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70308</t>
+          <t>126312</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>86090</t>
+          <t>133654</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>60,68%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>74,3%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>1392</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>161691</t>
+          <t>246360</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>150378</t>
+          <t>241307</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>171066</t>
+          <t>251459</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>89,33%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11077</t>
+          <t>12026</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7326</t>
+          <t>9578</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17753</t>
+          <t>14748</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>158</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27215</t>
+          <t>25749</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21630</t>
+          <t>21769</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>34568</t>
+          <t>29865</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>232</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>38292</t>
+          <t>37775</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30762</t>
+          <t>33435</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>48121</t>
+          <t>43088</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>19,56%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>572</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>58025</t>
+          <t>92440</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>51349</t>
+          <t>89718</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>61776</t>
+          <t>94888</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>545</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>61145</t>
+          <t>90031</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>53792</t>
+          <t>85915</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>66730</t>
+          <t>94011</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>74,21%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>119170</t>
+          <t>182471</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>109341</t>
+          <t>177158</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>126700</t>
+          <t>186811</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>82,85%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>80,44%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>84,82%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18273</t>
+          <t>19924</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13290</t>
+          <t>16637</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23813</t>
+          <t>23046</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>54841</t>
+          <t>49909</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>46354</t>
+          <t>44998</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>63151</t>
+          <t>54434</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>48,53%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>439</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>73113</t>
+          <t>69833</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>63084</t>
+          <t>64084</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>83078</t>
+          <t>75542</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>34,1%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>50733</t>
+          <t>69299</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>45193</t>
+          <t>66177</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>55716</t>
+          <t>72586</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>58173</t>
+          <t>82403</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>49863</t>
+          <t>77878</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>66660</t>
+          <t>87314</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>51,47%</t>
+          <t>62,28%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>922</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>108907</t>
+          <t>151702</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>98942</t>
+          <t>145993</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>118936</t>
+          <t>157451</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>68,48%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>71,07%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>113014</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>113014</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>113014</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>182020</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>182020</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>182020</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>89035</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>76884</t>
+          <t>58168</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>103533</t>
+          <t>70323</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>735</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>180565</t>
+          <t>121697</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>163597</t>
+          <t>113491</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>198477</t>
+          <t>130401</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>269599</t>
+          <t>185434</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>246871</t>
+          <t>173995</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>292076</t>
+          <t>196880</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>12,94%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>592074</t>
+          <t>660134</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>577576</t>
+          <t>653549</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>604225</t>
+          <t>665704</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>84,8%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>576754</t>
+          <t>675859</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>558842</t>
+          <t>667155</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>593722</t>
+          <t>684065</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>78,4%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>7440</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1168829</t>
+          <t>1335995</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1146352</t>
+          <t>1324549</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1191557</t>
+          <t>1347434</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>79,69%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>88,56%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>681109</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>681109</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>681109</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>757319</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>757319</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>757319</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1438428</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1438428</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1438428</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
